--- a/excel_data/Win19_wk2_A.xlsx
+++ b/excel_data/Win19_wk2_A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aguil\Documents\UCSD_old_laptop\Fall_2019\ECE 143\Project\ECE143_FinalProject\excel_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9330280B-F1E8-40B3-B2E3-1A1BD0183AA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD217624-A112-4CB3-BC66-17D94AD98915}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{FA4123A2-8BA4-4030-9F53-196C65BE7F54}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
   <si>
     <r>
       <rPr>
@@ -139,16 +139,6 @@
     <r>
       <rPr>
         <sz val="7"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -416,70 +406,70 @@
 </t>
   </si>
   <si>
-    <t>Mon-8</t>
-  </si>
-  <si>
-    <t>Mon-10</t>
-  </si>
-  <si>
-    <t>Mon-12</t>
-  </si>
-  <si>
-    <t>Mon-2</t>
-  </si>
-  <si>
-    <t>Tue-8</t>
-  </si>
-  <si>
-    <t>Tue-10</t>
-  </si>
-  <si>
-    <t>Tue-12</t>
-  </si>
-  <si>
-    <t>Tue-2</t>
-  </si>
-  <si>
-    <t>Wed-8</t>
-  </si>
-  <si>
-    <t>Wed-10</t>
-  </si>
-  <si>
-    <t>Wed-12</t>
-  </si>
-  <si>
-    <t>Wed-2</t>
-  </si>
-  <si>
-    <t>Thu-8</t>
-  </si>
-  <si>
-    <t>Thu-10</t>
-  </si>
-  <si>
-    <t>Thu-12</t>
-  </si>
-  <si>
-    <t>Thu-2</t>
-  </si>
-  <si>
-    <t>Fri-8</t>
-  </si>
-  <si>
-    <t>Fri-10</t>
-  </si>
-  <si>
-    <t>Fri-12</t>
-  </si>
-  <si>
-    <t>Fri-2</t>
-  </si>
-  <si>
     <t>Hopkins</t>
   </si>
   <si>
     <t>Level 7</t>
+  </si>
+  <si>
+    <t>Mon08</t>
+  </si>
+  <si>
+    <t>Mon010</t>
+  </si>
+  <si>
+    <t>Mon012</t>
+  </si>
+  <si>
+    <t>Mon02</t>
+  </si>
+  <si>
+    <t>Tue08</t>
+  </si>
+  <si>
+    <t>Tue010</t>
+  </si>
+  <si>
+    <t>Tue012</t>
+  </si>
+  <si>
+    <t>Tue02</t>
+  </si>
+  <si>
+    <t>Wed08</t>
+  </si>
+  <si>
+    <t>Wed010</t>
+  </si>
+  <si>
+    <t>Wed012</t>
+  </si>
+  <si>
+    <t>Wed02</t>
+  </si>
+  <si>
+    <t>Thu08</t>
+  </si>
+  <si>
+    <t>Thu010</t>
+  </si>
+  <si>
+    <t>Thu012</t>
+  </si>
+  <si>
+    <t>Thu02</t>
+  </si>
+  <si>
+    <t>Fri08</t>
+  </si>
+  <si>
+    <t>Fri010</t>
+  </si>
+  <si>
+    <t>Fri012</t>
+  </si>
+  <si>
+    <t>Fri02</t>
   </si>
 </sst>
 </file>
@@ -1235,8 +1225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230AF52D-F3B1-479A-ADCF-BE901E42E4E5}">
   <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1252,64 +1242,64 @@
         <v>2</v>
       </c>
       <c r="D1" s="66" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" s="67" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" s="67" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" s="67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" s="66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" s="67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" s="67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" s="67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" s="66" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" s="67" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" s="67" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" s="68" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" s="66" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q1" s="67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R1" s="67" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S1" s="68" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T1" s="66" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U1" s="67" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V1" s="67" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W1" s="67" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -1602,8 +1592,8 @@
       <c r="C6" s="23">
         <v>401</v>
       </c>
-      <c r="D6" s="25" t="s">
-        <v>10</v>
+      <c r="D6" s="25">
+        <v>0</v>
       </c>
       <c r="E6" s="27">
         <v>30</v>
@@ -1620,8 +1610,8 @@
       <c r="I6" s="24">
         <v>124</v>
       </c>
-      <c r="J6" s="26" t="s">
-        <v>10</v>
+      <c r="J6" s="26">
+        <v>0</v>
       </c>
       <c r="K6" s="26">
         <v>4</v>
@@ -1632,11 +1622,11 @@
       <c r="M6" s="27">
         <v>83</v>
       </c>
-      <c r="N6" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="O6" s="28" t="s">
-        <v>10</v>
+      <c r="N6" s="26">
+        <v>0</v>
+      </c>
+      <c r="O6" s="28">
+        <v>0</v>
       </c>
       <c r="P6" s="25">
         <v>308</v>
@@ -1644,8 +1634,8 @@
       <c r="Q6" s="34">
         <v>154</v>
       </c>
-      <c r="R6" s="24" t="s">
-        <v>10</v>
+      <c r="R6" s="24">
+        <v>0</v>
       </c>
       <c r="S6" s="28">
         <v>13</v>
@@ -1665,10 +1655,10 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="33" t="s">
         <v>37</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>38</v>
       </c>
       <c r="C7" s="23">
         <v>91</v>
@@ -1736,10 +1726,10 @@
     </row>
     <row r="8" spans="1:23" ht="17.399999999999999">
       <c r="A8" s="58" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C8" s="60">
         <v>84</v>
@@ -1751,10 +1741,10 @@
         <v>24</v>
       </c>
       <c r="F8" s="63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" s="63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8" s="61">
         <v>76</v>
@@ -1808,7 +1798,7 @@
     <row r="9" spans="1:23">
       <c r="A9" s="37"/>
       <c r="B9" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="38">
         <v>31</v>
@@ -1877,7 +1867,7 @@
     <row r="10" spans="1:23">
       <c r="A10" s="36"/>
       <c r="B10" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="43">
         <v>64</v>
@@ -1946,7 +1936,7 @@
     <row r="11" spans="1:23">
       <c r="A11" s="37"/>
       <c r="B11" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="38">
         <v>14</v>
@@ -2015,7 +2005,7 @@
     <row r="12" spans="1:23">
       <c r="A12" s="36"/>
       <c r="B12" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="43">
         <v>26</v>
@@ -2084,7 +2074,7 @@
     <row r="13" spans="1:23">
       <c r="A13" s="37"/>
       <c r="B13" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="38">
         <v>26</v>
@@ -2153,7 +2143,7 @@
     <row r="14" spans="1:23">
       <c r="A14" s="36"/>
       <c r="B14" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="43">
         <v>20</v>
@@ -2222,7 +2212,7 @@
     <row r="15" spans="1:23">
       <c r="A15" s="37"/>
       <c r="B15" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="23">
         <v>283</v>
@@ -2291,7 +2281,7 @@
     <row r="16" spans="1:23">
       <c r="A16" s="36"/>
       <c r="B16" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="13">
         <v>13</v>
@@ -2360,13 +2350,13 @@
     <row r="17" spans="1:23">
       <c r="A17" s="37"/>
       <c r="B17" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="23">
         <v>10</v>
       </c>
-      <c r="D17" s="25" t="s">
-        <v>10</v>
+      <c r="D17" s="25">
+        <v>0</v>
       </c>
       <c r="E17" s="27">
         <v>0</v>
@@ -2429,7 +2419,7 @@
     <row r="18" spans="1:23">
       <c r="A18" s="36"/>
       <c r="B18" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="13">
         <v>11</v>
@@ -2498,7 +2488,7 @@
     <row r="19" spans="1:23">
       <c r="A19" s="37"/>
       <c r="B19" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="23">
         <v>23</v>
@@ -2567,7 +2557,7 @@
     <row r="20" spans="1:23">
       <c r="A20" s="36"/>
       <c r="B20" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="13">
         <v>19</v>
@@ -2636,7 +2626,7 @@
     <row r="21" spans="1:23">
       <c r="A21" s="37"/>
       <c r="B21" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="23">
         <v>77</v>
@@ -2705,7 +2695,7 @@
     <row r="22" spans="1:23">
       <c r="A22" s="36"/>
       <c r="B22" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="13">
         <v>72</v>
@@ -2774,7 +2764,7 @@
     <row r="23" spans="1:23">
       <c r="A23" s="37"/>
       <c r="B23" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="23">
         <v>30</v>
@@ -2843,7 +2833,7 @@
     <row r="24" spans="1:23">
       <c r="A24" s="36"/>
       <c r="B24" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="13">
         <v>24</v>
@@ -2912,13 +2902,13 @@
     <row r="25" spans="1:23">
       <c r="A25" s="37"/>
       <c r="B25" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="23">
         <v>23</v>
       </c>
-      <c r="D25" s="25" t="s">
-        <v>10</v>
+      <c r="D25" s="25">
+        <v>0</v>
       </c>
       <c r="E25" s="27">
         <v>0</v>
@@ -2981,13 +2971,13 @@
     <row r="26" spans="1:23">
       <c r="A26" s="36"/>
       <c r="B26" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="30">
         <v>9</v>
       </c>
-      <c r="D26" s="15" t="s">
-        <v>10</v>
+      <c r="D26" s="15">
+        <v>0</v>
       </c>
       <c r="E26" s="17">
         <v>0</v>
@@ -3050,7 +3040,7 @@
     <row r="27" spans="1:23">
       <c r="A27" s="37"/>
       <c r="B27" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="23">
         <v>143</v>
@@ -3119,7 +3109,7 @@
     <row r="28" spans="1:23">
       <c r="A28" s="36"/>
       <c r="B28" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="30">
         <v>5</v>
@@ -3188,7 +3178,7 @@
     <row r="29" spans="1:23">
       <c r="A29" s="37"/>
       <c r="B29" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" s="48">
         <v>3</v>
@@ -3257,7 +3247,7 @@
     <row r="30" spans="1:23">
       <c r="A30" s="36"/>
       <c r="B30" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="13">
         <v>10</v>
@@ -3326,13 +3316,13 @@
     <row r="31" spans="1:23">
       <c r="A31" s="37"/>
       <c r="B31" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="23">
         <v>29</v>
       </c>
-      <c r="D31" s="25" t="s">
-        <v>10</v>
+      <c r="D31" s="25">
+        <v>0</v>
       </c>
       <c r="E31" s="27">
         <v>0</v>
@@ -3395,13 +3385,13 @@
     <row r="32" spans="1:23">
       <c r="A32" s="36"/>
       <c r="B32" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="13">
         <v>120</v>
       </c>
-      <c r="D32" s="15" t="s">
-        <v>10</v>
+      <c r="D32" s="15">
+        <v>0</v>
       </c>
       <c r="E32" s="17">
         <v>0</v>
@@ -3464,13 +3454,13 @@
     <row r="33" spans="1:23">
       <c r="A33" s="37"/>
       <c r="B33" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="23">
         <v>36</v>
       </c>
-      <c r="D33" s="25" t="s">
-        <v>10</v>
+      <c r="D33" s="25">
+        <v>0</v>
       </c>
       <c r="E33" s="27">
         <v>1</v>
@@ -3533,13 +3523,13 @@
     <row r="34" spans="1:23">
       <c r="A34" s="36"/>
       <c r="B34" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" s="13">
         <v>23</v>
       </c>
-      <c r="D34" s="15" t="s">
-        <v>10</v>
+      <c r="D34" s="15">
+        <v>0</v>
       </c>
       <c r="E34" s="17">
         <v>0</v>
@@ -3602,7 +3592,7 @@
     <row r="35" spans="1:23">
       <c r="A35" s="37"/>
       <c r="B35" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" s="23">
         <v>14</v>
@@ -3671,7 +3661,7 @@
     <row r="36" spans="1:23">
       <c r="A36" s="36"/>
       <c r="B36" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" s="13">
         <v>40</v>
@@ -3740,7 +3730,7 @@
     <row r="37" spans="1:23">
       <c r="A37" s="49"/>
       <c r="B37" s="50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" s="51">
         <v>74</v>
